--- a/analysis/map-data.xlsx
+++ b/analysis/map-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Google_drive/00-ASF/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DFF32E-7581-1847-9986-72157D6AE260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2D3174-92D1-1F46-9E43-03479DF340D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{625EDB89-8B51-914C-835E-9DF125DF0597}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -741,7 +741,8 @@
         <v>126.401081</v>
       </c>
       <c r="E10" s="1">
-        <v>2000</v>
+        <f xml:space="preserve"> 2000 + 25417</f>
+        <v>27417</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
